--- a/upload/excel_export_ci1.xlsx
+++ b/upload/excel_export_ci1.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">test4</t>
+    <t xml:space="preserve">excel</t>
   </si>
   <si>
     <t xml:space="preserve">hbjn</t>
@@ -171,10 +171,10 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.71"/>
